--- a/artfynd/A 31899-2020.xlsx
+++ b/artfynd/A 31899-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68207318</v>
+        <v>68207181</v>
       </c>
       <c r="B2" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Hjälmtorpet, väster, Jmt</t>
+          <t>Storbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>459098.8846219144</v>
+        <v>458441.6941991995</v>
       </c>
       <c r="R2" t="n">
-        <v>7043097.597365597</v>
+        <v>7043198.518935462</v>
       </c>
       <c r="S2" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Omr 12. RL</t>
+          <t>Omr 11. RL</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68207323</v>
+        <v>68207183</v>
       </c>
       <c r="B3" t="n">
-        <v>89392</v>
+        <v>73693</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Hjälmtorpet, väster, Jmt</t>
+          <t>Storbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>459052.7988635331</v>
+        <v>458577.7742100428</v>
       </c>
       <c r="R3" t="n">
-        <v>7043024.970524678</v>
+        <v>7043281.122331437</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Omr 12. RL</t>
+          <t>Omr 11. RL</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68207326</v>
+        <v>68207318</v>
       </c>
       <c r="B4" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459010.3649158786</v>
+        <v>459098.8846219144</v>
       </c>
       <c r="R4" t="n">
-        <v>7043062.572480315</v>
+        <v>7043097.597365597</v>
       </c>
       <c r="S4" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68207314</v>
+        <v>68207323</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459129.3651655668</v>
+        <v>459052.7988635331</v>
       </c>
       <c r="R5" t="n">
-        <v>7043069.079505847</v>
+        <v>7043024.970524678</v>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68207328</v>
+        <v>68207326</v>
       </c>
       <c r="B6" t="n">
-        <v>89388</v>
+        <v>89392</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1180,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1108</v>
+        <v>1202</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>458973.4536856875</v>
+        <v>459010.3649158786</v>
       </c>
       <c r="R6" t="n">
-        <v>7043042.957062576</v>
+        <v>7043062.572480315</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68207324</v>
+        <v>68207314</v>
       </c>
       <c r="B7" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,21 +1301,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>459052.7988635331</v>
+        <v>459129.3651655668</v>
       </c>
       <c r="R7" t="n">
-        <v>7043024.970524678</v>
+        <v>7043069.079505847</v>
       </c>
       <c r="S7" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68207317</v>
+        <v>68207328</v>
       </c>
       <c r="B8" t="n">
-        <v>94121</v>
+        <v>89388</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,21 +1422,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>53</v>
+        <v>1108</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>459129.3651655668</v>
+        <v>458973.4536856875</v>
       </c>
       <c r="R8" t="n">
-        <v>7043069.079505847</v>
+        <v>7043042.957062576</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68207319</v>
+        <v>68207324</v>
       </c>
       <c r="B9" t="n">
         <v>89673</v>
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>459098.8846219144</v>
+        <v>459052.7988635331</v>
       </c>
       <c r="R9" t="n">
-        <v>7043097.597365597</v>
+        <v>7043024.970524678</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68207325</v>
+        <v>68207317</v>
       </c>
       <c r="B10" t="n">
-        <v>89577</v>
+        <v>94121</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1660,25 +1660,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1688,13 +1688,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>459052.7988635331</v>
+        <v>459129.3651655668</v>
       </c>
       <c r="R10" t="n">
-        <v>7043024.970524678</v>
+        <v>7043069.079505847</v>
       </c>
       <c r="S10" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68207181</v>
+        <v>68207319</v>
       </c>
       <c r="B11" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1785,37 +1785,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Storbäcken, Jmt</t>
+          <t>Hjälmtorpet, väster, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>458441.6941991995</v>
+        <v>459098.8846219144</v>
       </c>
       <c r="R11" t="n">
-        <v>7043198.518935462</v>
+        <v>7043097.597365597</v>
       </c>
       <c r="S11" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Omr 11. RL</t>
+          <t>Omr 12. RL</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68207322</v>
+        <v>68207325</v>
       </c>
       <c r="B12" t="n">
-        <v>89832</v>
+        <v>89577</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>1209</v>
+        <v>48</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>459042.7434990486</v>
+        <v>459052.7988635331</v>
       </c>
       <c r="R12" t="n">
-        <v>7043112.158774633</v>
+        <v>7043024.970524678</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68207316</v>
+        <v>68207322</v>
       </c>
       <c r="B13" t="n">
-        <v>89388</v>
+        <v>89832</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2023,25 +2023,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1108</v>
+        <v>1209</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>459129.3651655668</v>
+        <v>459042.7434990486</v>
       </c>
       <c r="R13" t="n">
-        <v>7043069.079505847</v>
+        <v>7043112.158774633</v>
       </c>
       <c r="S13" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68207315</v>
+        <v>68207316</v>
       </c>
       <c r="B14" t="n">
-        <v>94437</v>
+        <v>89388</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2144,31 +2144,28 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>990</v>
+        <v>1108</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
-      <c r="J14" t="inlineStr"/>
-      <c r="K14" t="inlineStr"/>
-      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Hjälmtorpet, väster, Jmt</t>
@@ -2236,11 +2233,6 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ14" t="inlineStr">
-        <is>
-          <t>Ralf Lundmark</t>
-        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2261,10 +2253,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68207321</v>
+        <v>68207315</v>
       </c>
       <c r="B15" t="n">
-        <v>89388</v>
+        <v>94437</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2273,38 +2265,41 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1108</v>
+        <v>990</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Hjälmtorpet, väster, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>459098.8846219144</v>
+        <v>459129.3651655668</v>
       </c>
       <c r="R15" t="n">
-        <v>7043097.597365597</v>
+        <v>7043069.079505847</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2362,6 +2357,11 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ15" t="inlineStr">
+        <is>
+          <t>Ralf Lundmark</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2382,10 +2382,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68207320</v>
+        <v>68207321</v>
       </c>
       <c r="B16" t="n">
-        <v>78570</v>
+        <v>89388</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2398,21 +2398,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2081</v>
+        <v>1108</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68207241</v>
+        <v>68207320</v>
       </c>
       <c r="B17" t="n">
-        <v>89392</v>
+        <v>78570</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2519,21 +2519,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1202</v>
+        <v>2081</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2543,13 +2543,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>458967.9231099579</v>
+        <v>459098.8846219144</v>
       </c>
       <c r="R17" t="n">
-        <v>7043030.080933996</v>
+        <v>7043097.597365597</v>
       </c>
       <c r="S17" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68207183</v>
+        <v>68207241</v>
       </c>
       <c r="B18" t="n">
-        <v>73693</v>
+        <v>89392</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2640,34 +2640,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Storbäcken, Jmt</t>
+          <t>Hjälmtorpet, väster, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>458577.7742100428</v>
+        <v>458967.9231099579</v>
       </c>
       <c r="R18" t="n">
-        <v>7043281.122331437</v>
+        <v>7043030.080933996</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Omr 11. RL</t>
+          <t>Omr 12. RL</t>
         </is>
       </c>
       <c r="AD18" t="b">

--- a/artfynd/A 31899-2020.xlsx
+++ b/artfynd/A 31899-2020.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>68207181</v>
+        <v>68207318</v>
       </c>
       <c r="B2" t="n">
-        <v>89392</v>
+        <v>94121</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -696,37 +696,37 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>1202</v>
+        <v>53</v>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Storbäcken, Jmt</t>
+          <t>Hjälmtorpet, väster, Jmt</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>458441.6941991995</v>
+        <v>459098.8846219144</v>
       </c>
       <c r="R2" t="n">
-        <v>7043198.518935462</v>
+        <v>7043097.597365597</v>
       </c>
       <c r="S2" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
@@ -770,7 +770,7 @@
       </c>
       <c r="AC2" t="inlineStr">
         <is>
-          <t>Omr 11. RL</t>
+          <t>Omr 12. RL</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -801,10 +801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>68207183</v>
+        <v>68207323</v>
       </c>
       <c r="B3" t="n">
-        <v>73693</v>
+        <v>89392</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -817,34 +817,34 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6440</v>
+        <v>1202</v>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Storbäcken, Jmt</t>
+          <t>Hjälmtorpet, väster, Jmt</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>458577.7742100428</v>
+        <v>459052.7988635331</v>
       </c>
       <c r="R3" t="n">
-        <v>7043281.122331437</v>
+        <v>7043024.970524678</v>
       </c>
       <c r="S3" t="n">
         <v>10</v>
@@ -891,7 +891,7 @@
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>Omr 11. RL</t>
+          <t>Omr 12. RL</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -922,10 +922,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>68207318</v>
+        <v>68207326</v>
       </c>
       <c r="B4" t="n">
-        <v>94121</v>
+        <v>89392</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -938,21 +938,21 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>53</v>
+        <v>1202</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -962,13 +962,13 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>459098.8846219144</v>
+        <v>459010.3649158786</v>
       </c>
       <c r="R4" t="n">
-        <v>7043097.597365597</v>
+        <v>7043062.572480315</v>
       </c>
       <c r="S4" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T4" t="inlineStr">
         <is>
@@ -1043,7 +1043,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>68207323</v>
+        <v>68207314</v>
       </c>
       <c r="B5" t="n">
         <v>89392</v>
@@ -1083,13 +1083,13 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>459052.7988635331</v>
+        <v>459129.3651655668</v>
       </c>
       <c r="R5" t="n">
-        <v>7043024.970524678</v>
+        <v>7043069.079505847</v>
       </c>
       <c r="S5" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T5" t="inlineStr">
         <is>
@@ -1164,10 +1164,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>68207326</v>
+        <v>68207328</v>
       </c>
       <c r="B6" t="n">
-        <v>89392</v>
+        <v>89388</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1180,21 +1180,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1202</v>
+        <v>1108</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1204,10 +1204,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>459010.3649158786</v>
+        <v>458973.4536856875</v>
       </c>
       <c r="R6" t="n">
-        <v>7043062.572480315</v>
+        <v>7043042.957062576</v>
       </c>
       <c r="S6" t="n">
         <v>10</v>
@@ -1285,10 +1285,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>68207314</v>
+        <v>68207324</v>
       </c>
       <c r="B7" t="n">
-        <v>89392</v>
+        <v>89673</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1301,21 +1301,21 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1202</v>
+        <v>658</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Rhodofomes roseus</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1325,13 +1325,13 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>459129.3651655668</v>
+        <v>459052.7988635331</v>
       </c>
       <c r="R7" t="n">
-        <v>7043069.079505847</v>
+        <v>7043024.970524678</v>
       </c>
       <c r="S7" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T7" t="inlineStr">
         <is>
@@ -1406,10 +1406,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>68207328</v>
+        <v>68207317</v>
       </c>
       <c r="B8" t="n">
-        <v>89388</v>
+        <v>94121</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1422,21 +1422,21 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1108</v>
+        <v>53</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Vedtrappmossa</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Crossocalyx hellerianus</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Nees ex Lindenb.) Meyl.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1446,13 +1446,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>458973.4536856875</v>
+        <v>459129.3651655668</v>
       </c>
       <c r="R8" t="n">
-        <v>7043042.957062576</v>
+        <v>7043069.079505847</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1527,7 +1527,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>68207324</v>
+        <v>68207319</v>
       </c>
       <c r="B9" t="n">
         <v>89673</v>
@@ -1567,13 +1567,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>459052.7988635331</v>
+        <v>459098.8846219144</v>
       </c>
       <c r="R9" t="n">
-        <v>7043024.970524678</v>
+        <v>7043097.597365597</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1648,10 +1648,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>68207317</v>
+        <v>68207325</v>
       </c>
       <c r="B10" t="n">
-        <v>94121</v>
+        <v>89577</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1660,25 +1660,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Vedtrappmossa</t>
+          <t>Lappticka</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Crossocalyx hellerianus</t>
+          <t>Amylocystis lapponica</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Nees ex Lindenb.) Meyl.</t>
+          <t>(Romell) Singer</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
@@ -1688,13 +1688,13 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>459129.3651655668</v>
+        <v>459052.7988635331</v>
       </c>
       <c r="R10" t="n">
-        <v>7043069.079505847</v>
+        <v>7043024.970524678</v>
       </c>
       <c r="S10" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T10" t="inlineStr">
         <is>
@@ -1769,10 +1769,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68207319</v>
+        <v>68207181</v>
       </c>
       <c r="B11" t="n">
-        <v>89673</v>
+        <v>89392</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1785,37 +1785,37 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>658</v>
+        <v>1202</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Rhodofomes roseus</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.) Kotl. &amp; Pouzar</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Hjälmtorpet, väster, Jmt</t>
+          <t>Storbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>459098.8846219144</v>
+        <v>458441.6941991995</v>
       </c>
       <c r="R11" t="n">
-        <v>7043097.597365597</v>
+        <v>7043198.518935462</v>
       </c>
       <c r="S11" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T11" t="inlineStr">
         <is>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="AC11" t="inlineStr">
         <is>
-          <t>Omr 12. RL</t>
+          <t>Omr 11. RL</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1890,10 +1890,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>68207325</v>
+        <v>68207322</v>
       </c>
       <c r="B12" t="n">
-        <v>89577</v>
+        <v>89832</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1906,21 +1906,21 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>48</v>
+        <v>1209</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Lappticka</t>
+          <t>Rynkskinn</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Amylocystis lapponica</t>
+          <t>Phlebia centrifuga</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Romell) Singer</t>
+          <t>P.Karst.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>459052.7988635331</v>
+        <v>459042.7434990486</v>
       </c>
       <c r="R12" t="n">
-        <v>7043024.970524678</v>
+        <v>7043112.158774633</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -2011,10 +2011,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>68207322</v>
+        <v>68207316</v>
       </c>
       <c r="B13" t="n">
-        <v>89832</v>
+        <v>89388</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -2023,25 +2023,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>1209</v>
+        <v>1108</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Rynkskinn</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Phlebia centrifuga</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>P.Karst.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -2051,13 +2051,13 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>459042.7434990486</v>
+        <v>459129.3651655668</v>
       </c>
       <c r="R13" t="n">
-        <v>7043112.158774633</v>
+        <v>7043069.079505847</v>
       </c>
       <c r="S13" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T13" t="inlineStr">
         <is>
@@ -2132,10 +2132,10 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>68207316</v>
+        <v>68207315</v>
       </c>
       <c r="B14" t="n">
-        <v>89388</v>
+        <v>94437</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -2144,28 +2144,31 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1108</v>
+        <v>990</v>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Liten hornflikmossa</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lophozia ascendens</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Warnst.) R.M.Schust.</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
       <c r="P14" t="inlineStr">
         <is>
           <t>Hjälmtorpet, väster, Jmt</t>
@@ -2233,6 +2236,11 @@
       </c>
       <c r="AG14" t="b">
         <v>0</v>
+      </c>
+      <c r="AQ14" t="inlineStr">
+        <is>
+          <t>Ralf Lundmark</t>
+        </is>
       </c>
       <c r="AT14" t="inlineStr"/>
       <c r="AW14" t="inlineStr">
@@ -2253,10 +2261,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>68207315</v>
+        <v>68207321</v>
       </c>
       <c r="B15" t="n">
-        <v>94437</v>
+        <v>89388</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -2265,41 +2273,38 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>990</v>
+        <v>1108</v>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Liten hornflikmossa</t>
+          <t>Harticka</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Lophozia ascendens</t>
+          <t>Pelloporus leporinus</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>(Warnst.) R.M.Schust.</t>
+          <t>(Fr.) Krieglst.</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
-      <c r="J15" t="inlineStr"/>
-      <c r="K15" t="inlineStr"/>
-      <c r="L15" t="inlineStr"/>
       <c r="P15" t="inlineStr">
         <is>
           <t>Hjälmtorpet, väster, Jmt</t>
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>459129.3651655668</v>
+        <v>459098.8846219144</v>
       </c>
       <c r="R15" t="n">
-        <v>7043069.079505847</v>
+        <v>7043097.597365597</v>
       </c>
       <c r="S15" t="n">
         <v>25</v>
@@ -2357,11 +2362,6 @@
       </c>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AQ15" t="inlineStr">
-        <is>
-          <t>Ralf Lundmark</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2382,10 +2382,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>68207321</v>
+        <v>68207320</v>
       </c>
       <c r="B16" t="n">
-        <v>89388</v>
+        <v>78570</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -2398,21 +2398,21 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1108</v>
+        <v>2081</v>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Harticka</t>
+          <t>Skrovellav</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Pelloporus leporinus</t>
+          <t>Lobaria scrobiculata</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>(Fr.) Krieglst.</t>
+          <t>(Scop.) DC.</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
@@ -2503,10 +2503,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>68207320</v>
+        <v>68207241</v>
       </c>
       <c r="B17" t="n">
-        <v>78570</v>
+        <v>89392</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -2519,21 +2519,21 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>2081</v>
+        <v>1202</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Skrovellav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Lobaria scrobiculata</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Scop.) DC.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
@@ -2543,13 +2543,13 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>459098.8846219144</v>
+        <v>458967.9231099579</v>
       </c>
       <c r="R17" t="n">
-        <v>7043097.597365597</v>
+        <v>7043030.080933996</v>
       </c>
       <c r="S17" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T17" t="inlineStr">
         <is>
@@ -2624,10 +2624,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>68207241</v>
+        <v>68207183</v>
       </c>
       <c r="B18" t="n">
-        <v>89392</v>
+        <v>73693</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -2640,34 +2640,34 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1202</v>
+        <v>6440</v>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Hjälmtorpet, väster, Jmt</t>
+          <t>Storbäcken, Jmt</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>458967.9231099579</v>
+        <v>458577.7742100428</v>
       </c>
       <c r="R18" t="n">
-        <v>7043030.080933996</v>
+        <v>7043281.122331437</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2714,7 +2714,7 @@
       </c>
       <c r="AC18" t="inlineStr">
         <is>
-          <t>Omr 12. RL</t>
+          <t>Omr 11. RL</t>
         </is>
       </c>
       <c r="AD18" t="b">
